--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60</t>
-  </si>
-  <si>
-    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14</t>
-  </si>
-  <si>
-    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28</t>
-  </si>
-  <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0</t>
+    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63</t>
+  </si>
+  <si>
+    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0</t>
+  </si>
+  <si>
+    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16</t>
+  </si>
+  <si>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>16</v>
       </c>
       <c r="F2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -689,28 +689,28 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="M2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="N2">
         <v>26</v>
       </c>
       <c r="O2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>804</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J3">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>387</v>
       </c>
       <c r="N3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="M2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N2">
         <v>41</v>
       </c>
       <c r="O2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>828</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>345</v>
       </c>
       <c r="N3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,16 +1239,16 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>11</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1351,10 +1351,10 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0</t>
   </si>
   <si>
-    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16</t>
-  </si>
-  <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0</t>
+    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27</t>
+  </si>
+  <si>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>331</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2">
         <v>36</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <v>35</v>
       </c>
       <c r="I3">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="M3">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="N3">
         <v>24</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1047</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>101</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>330</v>
       </c>
       <c r="N2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q2">
         <v>887</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J3">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>558</v>
+        <v>608</v>
       </c>
       <c r="M3">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="N3">
         <v>48</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>997</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>28</v>
@@ -1251,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>

--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0</t>
   </si>
   <si>
-    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27</t>
-  </si>
-  <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0</t>
+    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14</t>
+  </si>
+  <si>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="M2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="N2">
         <v>29</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2">
         <v>16</v>
       </c>
       <c r="Q2">
-        <v>871</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J3">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>410</v>
       </c>
       <c r="N3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -952,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -964,28 +964,28 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="M2">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="N2">
         <v>45</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2">
         <v>23</v>
       </c>
       <c r="Q2">
-        <v>887</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>378</v>
       </c>
       <c r="N3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>28</v>
@@ -1251,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1368,10 +1368,10 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63</t>
-  </si>
-  <si>
-    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0</t>
+    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46</t>
+  </si>
+  <si>
+    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7</t>
   </si>
   <si>
     <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14</t>
   </si>
   <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -677,19 +677,19 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>16</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>16</v>
@@ -721,7 +721,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -730,28 +730,28 @@
         <v>56</v>
       </c>
       <c r="F3">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3">
         <v>38</v>
       </c>
       <c r="I3">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J3">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>622</v>
+        <v>659</v>
       </c>
       <c r="M3">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="N3">
         <v>28</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1105</v>
+        <v>1174</v>
       </c>
     </row>
   </sheetData>
@@ -943,25 +943,25 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>57</v>
@@ -976,13 +976,13 @@
         <v>347</v>
       </c>
       <c r="N2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>946</v>
@@ -996,37 +996,37 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I3">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>608</v>
+        <v>645</v>
       </c>
       <c r="M3">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="N3">
         <v>51</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1079</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="J2">
+        <v>42</v>
+      </c>
+      <c r="K2">
         <v>39</v>
-      </c>
-      <c r="K2">
-        <v>36</v>
       </c>
       <c r="L2">
         <v>28</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46</t>
-  </si>
-  <si>
-    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7</t>
-  </si>
-  <si>
-    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14</t>
-  </si>
-  <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61</t>
+    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46 66</t>
+  </si>
+  <si>
+    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7 22</t>
+  </si>
+  <si>
+    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14 18</t>
+  </si>
+  <si>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55 39 53</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61 0 0 18</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -677,10 +677,10 @@
         <v>19</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -689,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>352</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2">
         <v>933</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="M3">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="N3">
         <v>28</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1174</v>
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -964,7 +964,7 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>347</v>
       </c>
       <c r="N2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q2">
         <v>946</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="M3">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="N3">
         <v>51</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1142</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -1215,25 +1215,25 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -1251,7 +1251,7 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3">
         <v>19</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 35 0 7 2 1 17 6 1 1 -2 15 5 3 1 0 1 4 2 -2 8 8 -3 3 4 4 8 11 10 -4 1 7 2 3 -2 6 3 3 -3</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 5 17 22 4 14 31 10 2 40 4 7 41 29 16</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 2 -1 2 3 11 10 0 2 2 4 3 2 2 4 0 3 5</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 2 -4 6 5 11 -2 6 11 0 7 23 5 7 4 8 13 12 13 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46 66</t>
-  </si>
-  <si>
-    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7 22</t>
-  </si>
-  <si>
-    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14 18</t>
-  </si>
-  <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55 39 53</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61 0 0 18</t>
+    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46 66 60 67</t>
+  </si>
+  <si>
+    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7 22 15 15</t>
+  </si>
+  <si>
+    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14 18 14 22 21 7</t>
+  </si>
+  <si>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55 39 53 51 45 59 43 43 43 45 27</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0 0 0 0 0 14 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61 0 0 18 9 31 0 0 0 8 0 11 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,52 +665,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>14</v>
-      </c>
       <c r="J2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="M2">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="N2">
         <v>30</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>933</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G3">
         <v>93</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J3">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>457</v>
       </c>
       <c r="N3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -952,40 +952,40 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="M2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="N2">
         <v>53</v>
       </c>
       <c r="O2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2">
-        <v>946</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F3">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I3">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="J3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>424</v>
       </c>
       <c r="N3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,16 +1239,16 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 35 0 7 2 1 17 6 1 1 -2 15 5 3 1 0 1 4 2 -2 8 8 -3 3 4 4 8 11 10 -4 1 7 2 3 -2 6 3 3 -3</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 5 17 22 4 14 31 10 2 40 4 7 41 29 16</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 2 -1 2 3 11 10 0 2 2 4 3 2 2 4 0 3 5</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 2 -4 6 5 11 -2 6 11 0 7 23 5 7 4 8 13 12 13 6</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 35 0 7 2 1 17 6 1 1 -2 15 5 3 1 0 1 4 2 -2 8 8 -3 3 4 4 8 11 10 -4 1 7 2 3 -2 6 3 3 -3 1 4 9 2 0 -3 1 2 3 7 0 5 2 -3 2 0 1 0 3 15 3 8 -3 1 4 4 -1 3 3</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 5 17 22 4 14 31 10 2 40 4 7 41 29 16 6 9 17 20 29 9 9 7 70 6 5 6 4 7 -4 11 7 11 17 13 11 4 10 3 18 0 20 44</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 2 -1 2 3 11 10 0 2 2 4 3 2 2 4 0 3 5 11 10 2 1 1 3 7 0 -1 1 4 3</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 2 -4 6 5 11 -2 6 11 0 7 23 5 7 4 8 13 12 13 6 13 29 5 3 9 4 21 8 19 1 5 7 -2 42 11 1 3 9 13 5 9 6 4 -3 19 3 55 5 9</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46 66 60 67</t>
-  </si>
-  <si>
-    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7 22 15 15</t>
-  </si>
-  <si>
-    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14 18 14 22 21 7</t>
-  </si>
-  <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55 39 53 51 45 59 43 43 43 45 27</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0 0 0 0 0 14 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61 0 0 18 9 31 0 0 0 8 0 11 0</t>
+    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46 66 60 67 65 64 40 64</t>
+  </si>
+  <si>
+    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7 22 15 15 20 24 4 14</t>
+  </si>
+  <si>
+    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14 18 14 22 21 7 0 0 19</t>
+  </si>
+  <si>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55 39 53 51 45 59 43 43 43 45 27 54 46 50 45</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0 0 0 0 0 14 0 0 0 0 0 0 0 5 2</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61 0 0 18 9 31 0 0 0 8 0 11 0 0 6 21 33</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>16</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>387</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2">
         <v>40</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>694</v>
+        <v>731</v>
       </c>
       <c r="M3">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="N3">
         <v>34</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1230</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -964,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>390</v>
       </c>
       <c r="N2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>1073</v>
@@ -996,37 +996,37 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
+        <v>87</v>
+      </c>
+      <c r="F3">
+        <v>261</v>
+      </c>
+      <c r="G3">
         <v>84</v>
       </c>
-      <c r="F3">
-        <v>248</v>
-      </c>
-      <c r="G3">
-        <v>81</v>
-      </c>
       <c r="H3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>674</v>
+        <v>728</v>
       </c>
       <c r="M3">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="N3">
         <v>56</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1211</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,16 +1239,16 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Rams/Team Data.xlsx
+++ b/Base/Teams/Rams/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 35 0 7 2 1 17 6 1 1 -2 15 5 3 1 0 1 4 2 -2 8 8 -3 3 4 4 8 11 10 -4 1 7 2 3 -2 6 3 3 -3 1 4 9 2 0 -3 1 2 3 7 0 5 2 -3 2 0 1 0 3 15 3 8 -3 1 4 4 -1 3 3</t>
-  </si>
-  <si>
-    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 5 17 22 4 14 31 10 2 40 4 7 41 29 16 6 9 17 20 29 9 9 7 70 6 5 6 4 7 -4 11 7 11 17 13 11 4 10 3 18 0 20 44</t>
-  </si>
-  <si>
-    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 2 -1 2 3 11 10 0 2 2 4 3 2 2 4 0 3 5 11 10 2 1 1 3 7 0 -1 1 4 3</t>
-  </si>
-  <si>
-    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 2 -4 6 5 11 -2 6 11 0 7 23 5 7 4 8 13 12 13 6 13 29 5 3 9 4 21 8 19 1 5 7 -2 42 11 1 3 9 13 5 9 6 4 -3 19 3 55 5 9</t>
+    <t>4 0 5 1 3 0 7 3 4 3 0 11 14 6 0 4 1 6 2 12 1 4 4 8 1 2 3 4 3 6 4 4 2 8 3 4 3 2 4 4 5 5 3 -1 0 5 15 3 3 19 9 5 1 -1 5 -1 3 -1 4 9 3 40 2 2 11 5 5 10 1 2 6 3 4 7 4 0 7 0 12 0 4 14 14 6 3 2 2 -2 4 9 0 12 14 7 6 1 3 5 15 4 6 4 2 1 1 2 2 4 3 3 2 4 2 9 -1 13 3 4 0 3 5 1 -2 2 4 3 1 1 -1 7 2 6 2 8 3 3 3 12 -1 2 0 0 2 4 9 0 0 5 -2 6 4 1 46 -6 0 5 2 2 2 1 10 18 4 7 11 5 3 1 11 0 13 9 4 7 -1 6 11 5 6 4 9 9 0 -3 16 7 -1 13 6 3 5 12 1 25 10 11 1 9 -3 5 1 -4 3 -2 5 -1 2 -3 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 6 3 7 -1 7 -1 1 1 17 13 6 -1 7 16 13 4 5 3 1 4 0 5 3 1 -4 2 4 2 1 1 -2 -1 0 11 -1 2 0 2 -5 14 2 0 6 -3 2 2 -3 3 2 4 2 -1 4 5 8 -1 1 5 3 1 3 2 6 3 -1 1 61 6 1 4 0 6 9 2 4 2 2 -2 1 9 8 3 4 3 1 -4 5 3 2 -2 5 1 38 2 9 12 5 -1 5 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 2 3 6 9 4 1 -2 3 11 0 5 40 4 3 2 7 6 22 4 3 4 3 3 3 3 -2 0 1 1 7 2 14 7 23 3 4 2 5 5 -2 3 0 3 -1 8 12 10 0 13 3 11 9 2 0 0 1 -4 14 2 2 1 3 4 0 -1 6 12 6 5 1 4 0 2 9 0 3 -2 4 5 2 9 8 7 8 2 3 0 2 3 2 -1 -3 20 5 -3 15 5 3 4 2 2 6 6 1 8 4 5 1 1 3 6 0 6 6 5 1 0 3 8 2 6 1 3 6 10 4 13 6 3 6 5 0 5 7 4 4 6 1 2 7 0 -2 0 5 1 5 8 9 5 2 2 15 3 3 8 2 2 4 13 2 -4 3 -3 5 1 9 10 6 4 2 4 0 5 2 10 5 11 6 2 -5 1 2 2 6 4 0 4 4 2 5 1 4 -2 0 2 11 2 3 1 4 1 5 15 0 6 6 3 7 15 2 9 15 9 2 0 3 3 6 4 11 3 8 5 7 0 6 0 1 4 3 -3 10 2 6 15 3 6 0 1 3 -1 7 5 29 8 -1 0 2 12 0 2 -1 0 4 1 0 22 9 15 0 4 3 4 2 2 8 0 8 6 10 5 3 1 3 0 1 9 6 5 2 4 5 0 3 3 0 4 3 5 10 0 3 1 1 1 4 0 -2 3 8 4 4 0 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 10 6 1 3 11 4 3 6 7 5 6 6 3 1 2 3 7 5 7 2 0 3 5 3 5 6 0 7 6 0 5 9 2 2 9 4 9 -2 3 0 3 6 8 6 -1 6 7 5 0 25 2 3 2 4 3 19 -1 11 12 4 0 -1 2 5 2 2 0 0 10 3 6 6 0 2 5 2 10 0 -2 1 4 1 2 6 1 2 3 9 39 0 0 6 6 10 3 0 17 1 -4 4 8 2 5 7 6 1 10 8 9 0 16 4 2 5 4 4 10 3 11 17 3 4 0 4 3 3 7 -1 1 2 0 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4 2 1 -1 1 1 4 0 0 -5 -1 2 2 -1 7 2 3 1 18 -2 2 14 1 4 2 1 2 4 35 0 7 2 1 17 6 1 1 -2 15 5 3 1 0 1 4 2 -2 8 8 -3 3 4 4 8 11 10 -4 1 7 2 3 -2 6 3 3 -3 1 4 9 2 0 -3 1 2 3 7 0 5 2 -3 2 0 1 0 3 15 3 8 -3 1 4 4 -1 3 3 3 14 0 0 8 4 4 3 6 14 -3 1 1 9 2 5 2 -2 0 2 0 0 3 1 -1</t>
+  </si>
+  <si>
+    <t>20 31 9 18 6 4 8 4 5 21 11 31 10 7 30 6 17 7 15 15 24 4 10 8 5 19 21 13 12 6 20 3 13 6 21 12 1 13 28 28 12 20 13 3 16 7 5 8 10 6 9 20 18 31 25 17 -6 17 8 31 16 23 9 16 8 8 8 10 5 7 11 5 4 -2 0 15 -1 4 7 -1 1 2 7 8 7 7 55 1 17 17 -6 9 23 7 4 56 12 6 8 40 3 5 10 6 49 2 29 11 17 3 10 8 -5 31 12 6 17 7 4 4 7 6 8 5 5 4 40 13 11 -3 16 14 7 7 4 18 9 3 34 2 6 -5 13 21 6 10 3 11 8 12 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 8 5 11 31 39 14 16 8 9 9 11 10 9 15 7 11 8 5 17 21 5 7 9 7 -3 8 5 5 6 8 5 37 7 4 -1 6 3 8 19 7 24 6 7 5 9 8 4 35 -1 12 6 8 16 2 7 18 18 4 5 17 5 -3 -1 23 9 19 11 7 11 4 30 6 5 8 6 10 9 8 5 33 14 12 8 6 5 11 11 6 4 6 5 4 16 5 9 8 3 5 12 15 21 18 4 10 6 1 19 3 30 5 9 9 22 6 13 9 8 -4 3 22 10 7 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 6 11 0 15 5 16 -1 3 17 6 44 5 15 9 3 16 2 13 6 4 6 5 9 12 19 11 8 6 6 13 11 2 5 3 13 2 4 22 9 6 11 26 8 13 3 15 27 2 13 12 9 12 10 10 1 7 4 0 13 26 4 38 3 19 -2 1 15 13 44 6 4 44 20 6 7 9 15 1 3 28 19 4 21 5 6 4 4 6 16 4 5 16 8 5 9 5 8 -3 7 67 1 18 4 17 17 1 6 19 56 6 37 3 6 17 15 9 2 16 23 14 13 16 9 4 8 16 11 14 43 2 11 44 10 14 7 3 7 6 12 22 11 5 6 6 6 9 2 11 21 22 2 75 0 20 5 40 10 5 17 6 4 10 3 20 5 18 5 2 7 14 14 7 35 18 9 0 6 8 7 22 8 6 7 13 9 12 5 9 14 -1 16 11 9 4 17 17 25 5 9 5 8 6 7 9 68 20 20 13 3 23 1 24 33 13 30 16 6 28 10 15 9 4 4 -6 9 -4 16 25 4 4 5 18 5 6 13 16 29 4 5 1 5 5 2 11 11 27 3 22 10 4 9 2 7 13 22 5 14 59 14 5 6 18 5 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 5 2 6 8 16 29 13 10 8 33 5 -2 5 2 6 -3 12 16 6 11 5 9 5 2 25 9 4 5 79 5 11 22 3 19 6 1 8 9 54 13 7 10 7 7 7 11 14 -1 27 4 35 5 9 8 7 7 7 4 19 8 7 43 29 8 3 19 22 2 5 5 3 8 1 5 13 1 7 11 8 2 17 6 40 6 2 6 52 4 4 23 4 17 44 7 12 -4 7 0 1 14 18 5 11 12 9 9 3 2 42 5 32 6 -1 24 5 11 29 5 4 19 11 8 6 4 3 6 6 10 4 7 16 11 8 12 7 37 6 7 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7 13 2 46 8 6 7 16 9 7 7 2 15 8 5 24 6 30 4 12 9 5 17 22 4 14 31 10 2 40 4 7 41 29 16 6 9 17 20 29 9 9 7 70 6 5 6 4 7 -4 11 7 11 17 13 11 4 10 3 18 0 20 44 3 3 17 2 13 10 5 6 11 7 15 16 13 9 13 26 9 7 11 20 9 11 29 16 7 -4 6 8 6 25 8</t>
+  </si>
+  <si>
+    <t>10 1 0 4 4 6 6 3 12 0 1 12 0 3 3 1 4 9 6 6 4 3 3 12 2 3 1 3 9 6 4 6 1 2 1 5 6 5 6 9 5 4 9 3 3 5 2 4 2 15 0 1 4 16 2 13 13 0 2 6 4 1 9 8 4 1 2 -3 6 0 5 17 7 3 8 -1 3 4 4 4 2 4 4 10 3 3 1 3 6 5 10 26 4 3 3 0 13 11 1 5 0 3 7 -2 3 0 1 4 4 4 6 5 2 2 7 4 3 15 3 4 0 3 8 5 2 2 1 3 6 0 1 1 5 -6 4 1 9 4 4 4 2 1 6 10 0 3 3 1 3 1 4 3 1 4 1 3 5 11 2 6 3 0 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 5 13 1 1 9 -1 5 11 3 3 3 5 5 7 2 0 3 2 5 14 15 0 2 1 2 6 5 1 2 -1 1 2 1 5 2 6 3 2 4 6 7 3 5 3 8 0 2 10 2 6 10 19 0 5 4 4 -4 1 7 5 -2 0 0 0 1 3 1 2 0 4 1 0 5 4 2 0 0 6 3 4 -2 7 13 3 1 11 4 3 27 0 1 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 0 4 2 5 9 0 4 2 6 -4 3 6 3 3 2 1 0 8 2 3 12 2 7 3 8 4 0 4 1 3 10 1 5 11 4 6 6 2 1 3 4 0 6 3 15 0 3 3 4 1 11 7 1 -2 3 3 1 3 12 3 -4 4 -4 12 5 -3 -3 2 14 6 10 4 5 3 4 6 17 1 0 7 2 10 1 3 6 3 1 4 0 5 -1 2 9 3 3 -1 3 6 8 5 8 3 4 3 5 5 4 3 1 60 8 4 2 1 11 2 4 3 6 1 1 6 6 4 41 0 14 2 -3 -2 1 3 5 10 3 3 0 9 3 1 6 4 4 6 1 3 8 5 4 3 3 4 13 0 0 0 5 2 8 4 0 5 12 1 14 6 2 9 -1 1 1 9 3 3 1 4 1 3 1 5 -1 4 3 0 2 3 1 4 9 19 -1 0 10 -2 10 -1 18 8 1 3 4 12 9 3 3 5 0 4 1 1 1 5 4 4 2 1 0 3 54 7 4 14 0 11 3 -3 1 3 13 1 4 4 0 7 4 2 3 4 4 3 6 -4 5 4 2 2 6 2 1 5 12 4 14 9 2 3 0 2 2 0 6 -1 2 4 2 2 5 4 6 1 1 8 3 7 6 3 1 5 12 3 14 1 -3 3 4 0 1 3 2 2 11 14 4 5 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 4 7 5 1 9 4 0 2 0 8 6 5 -1 9 -1 1 6 2 13 2 8 17 4 -2 4 4 4 -6 3 -3 4 8 4 2 0 -2 2 1 9 2 0 -4 8 3 6 2 4 1 -1 0 1 2 7 5 0 8 4 1 8 2 5 2 4 -4 3 2 5 -1 2 7 7 3 3 2 1 3 1 -1 10 0 2 9 -1 7 1 1 -3 13 -1 1 2 -1 4 0 2 1 5 2 13 1 1 0 0 1 7 2 5 12 8 16 0 17 6 2 1 8 1 1 10 2 2 1 7 6 7 6 1 8 4 2 8 4 2 2 4 5 -1 1 5 18 4 -2 2 -1 1 15 1 -1 0 -2 2 8 -3 9 2 3 5 -2 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2 1 -2 -1 -1 13 2 5 2 16 7 2 4 8 5 6 3 1 9 5 3 12 0 0 5 1 13 8 2 5 1 0 2 -1 2 3 11 10 0 2 2 4 3 2 2 4 0 3 5 11 10 2 1 1 3 7 0 -1 1 4 3 0 3 3 1 3 3 2 4 6 9 3 1 1 5 -1 0 -1 9 -1 0</t>
+  </si>
+  <si>
+    <t>9 10 24 4 5 33 6 19 3 18 9 12 12 14 9 11 12 11 11 14 2 5 7 4 12 12 14 4 2 8 16 5 8 12 10 8 5 5 6 9 12 9 25 3 4 8 4 22 8 11 11 4 12 5 39 9 5 21 29 3 34 12 13 0 4 7 23 5 22 6 19 17 3 -7 8 17 -2 10 12 4 6 11 -1 8 12 8 9 7 -1 9 15 13 4 33 5 3 3 12 8 18 10 6 5 9 6 12 9 5 3 -2 -1 4 1 35 10 18 6 2 7 4 8 5 19 25 8 2 11 4 7 -2 8 18 7 11 11 8 8 7 2 38 7 2 3 8 14 6 18 9 14 6 7 42 3 4 7 5 7 19 6 5 0 8 0 8 15 3 9 7 10 7 8 10 8 7 22 21 8 6 7 10 6 39 5 2 12 10 13 9 19 16 11 4 9 4 8 6 7 6 7 16 4 9 4 7 9 18 12 4 7 1 10 9 9 9 10 10 13 7 12 4 33 26 3 4 12 9 3 -6 18 4 26 -1 1 29 4 6 3 12 20 7 24 7 4 59 6 8 8 6 10 6 4 5 5 2 2 7 8 3 1 7 5 7 0 5 25 31 5 13 6 4 30 2 7 6 6 6 12 5 8 6 5 18 4 7 5 2 0 10 11 21 22 4 14 5 16 24 2 6 6 9 4 12 4 15 6 4 17 7 1 45 18 7 11 11 24 3 8 13 7 3 11 3 3 4 13 12 9 19 10 -1 26 25 8 6 6 16 12 1 24 19 51 9 5 1 15 9 28 12 8 12 27 9 6 8 1 1 14 11 6 12 21 33 21 9 7 4 4 4 58 12 8 4 9 5 10 4 19 -2 10 9 7 3 10 9 8 6 7 10 8 3 10 1 11 5 11 9 9 10 5 6 14 10 9 5 9 42 2 18 7 13 7 3 7 12 23 8 0 15 9 34 10 8 5 1 15 17 4 3 7 7 0 17 5 26 3 20 20 32 14 8 20 15 11 6 7 17 11 -4 23 13 31 17 8 -2 11 8 5 5 21 -1 9 9 7 5 8 25 5 41 6 14 10 7 9 -3 14 7 10 3 16 9 7 9 18 6 12 25 5 25 4 25 14 19 29 9 8 13 5 1 17 8 3 21 23 7 5 14 20 13 17 8 3 16 2 9 4 14 7 8 3 10 10 11 6 10 3 10 1 11 12 11 11 7 6 2 4 63 -1 21 12 15 8 20 14 9 7 5 37 6 6 5 4 3 6 5 17 2 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 -1 18 6 7 8 10 20 21 6 3 19 7 11 7 8 15 0 2 7 7 5 1 54 27 43 7 10 6 7 8 28 6 6 5 2 9 2 8 6 7 9 3 28 -1 6 11 5 16 9 -2 12 9 7 17 10 9 14 6 17 11 14 5 7 2 18 -2 26 10 41 13 3 9 0 5 12 6 6 7 23 15 36 17 12 8 -2 3 11 9 6 7 -5 9 4 11 9 34 9 25 12 3 3 2 9 7 11 6 1 9 9 14 25 -1 4 5 9 8 6 9 6 21 34 9 5 19 19 14 6 10 6 30 16 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5 4 13 -2 6 8 19 -2 8 26 13 31 6 24 32 10 1 21 5 43 14 6 34 9 1 2 -4 6 5 11 -2 6 11 0 7 23 5 7 4 8 13 12 13 6 13 29 5 3 9 4 21 8 19 1 5 7 -2 42 11 1 3 9 13 5 9 6 4 -3 19 3 55 5 9 12 18 2 31 44 11 6 13 11 13 14 11 16 21 12 -3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46 66 60 67 65 64 40 64</t>
-  </si>
-  <si>
-    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7 22 15 15 20 24 4 14</t>
-  </si>
-  <si>
-    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14 18 14 22 21 7 0 0 19</t>
-  </si>
-  <si>
-    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55 39 53 51 45 59 43 43 43 45 27 54 46 50 45</t>
-  </si>
-  <si>
-    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0 0 0 0 0 14 0 0 0 0 0 0 0 5 2</t>
-  </si>
-  <si>
-    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61 0 0 18 9 31 0 0 0 8 0 11 0 0 6 21 33</t>
+    <t>59 60 64 60 59 62 70 61 58 58 66 65 62 63 69 67 68 45 65 65 65 67 70 66 58 61 63 65 64 66 64 65 66 65 72 65 44 63 65 65 66 60 61 61 60 62 70 62 63 63 66 54 67 71 70 67 66 42 58 54 60 58 63 66 21 46 66 60 67 65 64 40 64 62 62</t>
+  </si>
+  <si>
+    <t>21 27 20 25 45 39 34 27 14 14 28 23 21 28 22 21 23 4 22 32 33 49 24 54 0 24 28 26 28 27 58 24 17 26 50 24 13 19 41 24 24 9 24 22 0 0 30 22 23 37 22 11 27 44 25 25 37 0 14 10 14 24 0 9 0 7 22 15 15 20 24 4 14 15 11</t>
+  </si>
+  <si>
+    <t>20 19 15 14 41 17 30 22 23 18 25 0 20 17 26 19 13 24 24 14 26 22 18 22 23 26 36 10 21 27 38 21 21 28 16 25 20 12 18 19 7 17 17 17 24 8 15 19 26 17 17 16 23 20 28 65 16 27 32 14 18 14 22 21 7 0 0 19 24</t>
+  </si>
+  <si>
+    <t>58 42 54 42 39 57 61 58 47 60 54 47 56 37 28 46 47 63 44 45 46 35 30 57 63 36 62 41 33 60 44 44 50 41 35 32 43 47 52 44 43 40 31 42 62 47 48 57 56 44 43 48 39 46 37 35 59 44 41 35 47 40 50 32 49 31 40 47 55 40 49 44 45 46 49 44 48 48 64 42 50 33 46 30 41 51 27 37 52 45 33 54 48 38 34 52 36 41 46 49 48 35 57 52 45 45 38 42 44 53 41 41 33 46 46 58 38 42 40 33 51 46 53 55 39 53 51 45 59 43 43 43 45 27 54 46 50 45 58</t>
+  </si>
+  <si>
+    <t>20 0 0 0 0 0 15 0 9 0 6 13 0 0 0 0 0 8 0 12 0 0 0 0 0 0 0 0 0 88 0 0 0 0 0 0 8 4 2 0 0 7 0 0 15 0 0 12 0 0 0 19 3 21 6 4 18 0 0 0 12 0 0 0 0 0 3 0 0 0 10 0 8 0 0 8 9 8 0 0 3 0 0 0 0 4 0 0 13 0 0 0 0 0 0 0 0 0 0 0 1 0 0 11 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9 5 0 0 0 0 0 0 0 14 0 0 0 0 0 0 0 5 2 9</t>
+  </si>
+  <si>
+    <t>0 0 0 0 9 0 0 7 0 9 0 0 0 0 16 3 0 8 2 10 0 3 15 0 9 5 0 0 15 0 0 -1 0 0 0 0 12 2 0 0 0 0 15 0 0 2 0 0 7 0 0 4 -2 0 5 0 0 9 7 8 0 0 0 0 0 0 0 12 19 34 0 1 0 6 1 0 0 0 0 0 0 0 0 0 0 0 0 9 0 0 0 0 0 0 9 0 0 0 0 4 0 0 11 0 8 28 0 11 0 0 0 2 0 8 0 0 0 0 0 0 0 7 0 0 0 0 0 13 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 61 0 0 18 9 31 0 0 0 8 0 11 0 0 6 21 33 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="D2">
         <v>31</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H2">
         <v>18</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="M2">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="N2">
         <v>32</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>18</v>
       </c>
       <c r="Q2">
-        <v>1063</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J3">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>485</v>
       </c>
       <c r="N3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -952,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -964,16 +964,16 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="M2">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="N2">
         <v>56</v>
@@ -985,7 +985,7 @@
         <v>30</v>
       </c>
       <c r="Q2">
-        <v>1073</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,19 +1239,19 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1368,10 +1368,10 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
